--- a/2018年12月贵州战团汇总数据.xlsx
+++ b/2018年12月贵州战团汇总数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>贵州战团公司12月每日明细表</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>26-31日汇总</t>
+  </si>
+  <si>
+    <t>281.6</t>
   </si>
   <si>
     <t>.</t>
@@ -176,11 +179,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00;_糿"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -217,6 +220,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -230,17 +240,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,24 +261,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,15 +277,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,6 +287,27 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -321,24 +322,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,11 +338,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,9 +353,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,7 +409,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,7 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,7 +475,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,115 +571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,25 +583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,11 +852,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,51 +898,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,154 +925,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1561,11 +1564,11 @@
   <dimension ref="A1:AT52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X37" sqref="X37"/>
+      <selection pane="bottomRight" activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1616,7 +1619,7 @@
       </c>
       <c r="E2" s="5">
         <f>SUM(S10,S18,S26,S34,S42,V50)</f>
-        <v>85472</v>
+        <v>89033</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -3577,9 +3580,15 @@
       <c r="K45" s="14">
         <v>5</v>
       </c>
-      <c r="L45" s="11"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="14"/>
+      <c r="L45" s="11">
+        <v>2</v>
+      </c>
+      <c r="M45" s="13">
+        <v>3561</v>
+      </c>
+      <c r="N45" s="14">
+        <v>7</v>
+      </c>
       <c r="O45" s="11"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="14"/>
@@ -3589,7 +3598,7 @@
       <c r="U45" s="31"/>
       <c r="V45" s="32">
         <f t="shared" ref="V45:V50" si="10">SUM(D45,G45,J45,M45,P45,S45)</f>
-        <v>10435.5</v>
+        <v>13996.5</v>
       </c>
       <c r="W45" s="33"/>
     </row>
@@ -3625,9 +3634,15 @@
       <c r="K46" s="14">
         <v>4</v>
       </c>
-      <c r="L46" s="11"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="14"/>
+      <c r="L46" s="11">
+        <v>1</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N46" s="14">
+        <v>3</v>
+      </c>
       <c r="O46" s="11"/>
       <c r="P46" s="13"/>
       <c r="Q46" s="14"/>
@@ -3766,17 +3781,17 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="L50" s="17" t="str">
+      <c r="L50" s="17">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="M50" s="21" t="str">
+        <v>3</v>
+      </c>
+      <c r="M50" s="21">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="N50" s="22" t="str">
+        <v>3561</v>
+      </c>
+      <c r="N50" s="22">
         <f t="shared" si="11"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="O50" s="17" t="str">
         <f t="shared" si="11"/>
@@ -3805,13 +3820,13 @@
       <c r="U50" s="34"/>
       <c r="V50" s="37">
         <f t="shared" si="10"/>
-        <v>11293</v>
+        <v>14854</v>
       </c>
       <c r="W50" s="22"/>
     </row>
     <row r="52" spans="46:46">
       <c r="AT52" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
